--- a/data/output/FV2410_FV2404/UTILMD/44149.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/44149.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5138" uniqueCount="415">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5159" uniqueCount="415">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1359,6 +1359,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U223" totalsRowShown="0">
+  <autoFilter ref="A1:U223"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1648,7 +1678,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12548,5 +12581,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/44149.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/44149.xlsx
@@ -2438,7 +2438,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4976,7 +4976,7 @@
         <v>400</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5142,7 +5142,7 @@
         <v>401</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5358,7 +5358,7 @@
         <v>400</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5954,7 +5954,7 @@
         <v>403</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8232,7 +8232,7 @@
         <v>404</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8692,7 +8692,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8994,7 +8994,7 @@
         <v>405</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9138,7 +9138,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9284,7 +9284,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9444,7 +9444,7 @@
         <v>404</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9606,7 +9606,7 @@
         <v>405</v>
       </c>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9754,7 +9754,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10426,7 +10426,7 @@
         <v>404</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10642,7 +10642,7 @@
         <v>406</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -10792,7 +10792,7 @@
         <v>407</v>
       </c>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -11010,7 +11010,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11390,7 +11390,7 @@
         <v>410</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -11802,7 +11802,7 @@
         <v>411</v>
       </c>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -12160,7 +12160,7 @@
         <v>412</v>
       </c>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12360,7 +12360,7 @@
         <v>413</v>
       </c>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -12662,7 +12662,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -13338,7 +13338,7 @@
         <v>414</v>
       </c>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -13628,7 +13628,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -13788,7 +13788,7 @@
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N221" s="2"/>
